--- a/Excel2Json/Test/skill_gather.xlsx
+++ b/Excel2Json/Test/skill_gather.xlsx
@@ -154,9 +154,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -258,22 +255,6 @@
   </si>
   <si>
     <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tring</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>g</t>
     </r>
     <r>
@@ -414,6 +395,14 @@
   </si>
   <si>
     <t>蓄力速度比例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[100]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;32</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1107,10 +1096,10 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1133,49 +1122,49 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -1230,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1251,72 +1240,72 @@
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
+      <c r="A4" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="I4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="L4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1345,19 +1334,19 @@
         <v>110000103</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
